--- a/result/train_result.txt.xlsx
+++ b/result/train_result.txt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -28,13 +28,10 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>COMMA</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
   </si>
   <si>
     <t>O</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,13 +426,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.8167770419426049</v>
+        <v>0.3390581717451523</v>
       </c>
       <c r="D2">
-        <v>0.8333333333333334</v>
+        <v>0.6274777853725222</v>
       </c>
       <c r="E2">
-        <v>0.8008658008658008</v>
+        <v>0.2322874493927126</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +443,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.8268471517202483</v>
+        <v>0.391918073623028</v>
       </c>
       <c r="D3">
-        <v>0.8054945054945055</v>
+        <v>0.5863354037267081</v>
       </c>
       <c r="E3">
-        <v>0.8493626882966396</v>
+        <v>0.2943255040532114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,13 +460,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.7271805273833672</v>
+        <v>0.9634854892175566</v>
       </c>
       <c r="D4">
-        <v>0.8356643356643356</v>
+        <v>0.9383892617449664</v>
       </c>
       <c r="E4">
-        <v>0.6436265709156194</v>
+        <v>0.9899609468161221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,13 +477,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.9703302727148143</v>
+        <v>0.5931085740247125</v>
       </c>
       <c r="D5">
-        <v>0.9632678049112305</v>
+        <v>0.7174008169480656</v>
       </c>
       <c r="E5">
-        <v>0.9774970663353352</v>
+        <v>0.505524633420682</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,30 +494,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.8381230810683434</v>
+        <v>0.3602126716880815</v>
       </c>
       <c r="D6">
-        <v>0.8594399948508512</v>
+        <v>0.6088747425575735</v>
       </c>
       <c r="E6">
-        <v>0.8178380316033488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.8067459670848949</v>
-      </c>
-      <c r="D7">
-        <v>0.82106135986733</v>
-      </c>
-      <c r="E7">
-        <v>0.792921204356182</v>
+        <v>0.2557609123082973</v>
       </c>
     </row>
   </sheetData>

--- a/result/train_result.txt.xlsx
+++ b/result/train_result.txt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -28,13 +28,19 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>COMMA</t>
-  </si>
-  <si>
-    <t>PERIOD</t>
-  </si>
-  <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>&lt;PAD&gt;</t>
   </si>
   <si>
     <t>Macro</t>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,13 +432,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.3390581717451523</v>
+        <v>0.8727850976828715</v>
       </c>
       <c r="D2">
-        <v>0.6274777853725222</v>
+        <v>0.7860065466448445</v>
       </c>
       <c r="E2">
-        <v>0.2322874493927126</v>
+        <v>0.9811031664964249</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -443,13 +449,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.391918073623028</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="D3">
-        <v>0.5863354037267081</v>
+        <v>0.6192660550458715</v>
       </c>
       <c r="E3">
-        <v>0.2943255040532114</v>
+        <v>0.4326923076923077</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -460,13 +466,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.9634854892175566</v>
+        <v>0.2780082987551867</v>
       </c>
       <c r="D4">
-        <v>0.9383892617449664</v>
+        <v>0.5317460317460317</v>
       </c>
       <c r="E4">
-        <v>0.9899609468161221</v>
+        <v>0.1882022471910112</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -477,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.5931085740247125</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7174008169480656</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.505524633420682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -494,13 +500,47 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.3602126716880815</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6088747425575735</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2557609123082973</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0.3507301606914083</v>
+      </c>
+      <c r="D7">
+        <v>0.3874037266873495</v>
+      </c>
+      <c r="E7">
+        <v>0.3203995442759487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0.2324510932105869</v>
+      </c>
+      <c r="D8">
+        <v>0.2329873125720877</v>
+      </c>
+      <c r="E8">
+        <v>0.2319173363949483</v>
       </c>
     </row>
   </sheetData>

--- a/result/train_result.txt.xlsx
+++ b/result/train_result.txt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -28,19 +28,10 @@
     <t>Recall</t>
   </si>
   <si>
+    <t>PUNCT</t>
+  </si>
+  <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>&lt;PAD&gt;</t>
   </si>
   <si>
     <t>Macro</t>
@@ -404,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.8727850976828715</v>
+        <v>0.9296498554449085</v>
       </c>
       <c r="D2">
-        <v>0.7860065466448445</v>
+        <v>0.9323453608247423</v>
       </c>
       <c r="E2">
-        <v>0.9811031664964249</v>
+        <v>0.9269698910954516</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.5094339622641509</v>
+        <v>0.9698035160289555</v>
       </c>
       <c r="D3">
-        <v>0.6192660550458715</v>
+        <v>0.9686015286097913</v>
       </c>
       <c r="E3">
-        <v>0.4326923076923077</v>
+        <v>0.9710084903706772</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.2780082987551867</v>
+        <v>0.9497307378217106</v>
       </c>
       <c r="D4">
-        <v>0.5317460317460317</v>
+        <v>0.9504734447172668</v>
       </c>
       <c r="E4">
-        <v>0.1882022471910112</v>
+        <v>0.9489891907330643</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,64 +474,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9296498554449085</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9323453608247423</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.3507301606914083</v>
-      </c>
-      <c r="D7">
-        <v>0.3874037266873495</v>
-      </c>
-      <c r="E7">
-        <v>0.3203995442759487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0.2324510932105869</v>
-      </c>
-      <c r="D8">
-        <v>0.2329873125720877</v>
-      </c>
-      <c r="E8">
-        <v>0.2319173363949483</v>
+        <v>0.9269698910954516</v>
       </c>
     </row>
   </sheetData>
